--- a/StructureDefinition-be-organization.xlsx
+++ b/StructureDefinition-be-organization.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$75</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2647" uniqueCount="365">
   <si>
     <t>Path</t>
   </si>
@@ -359,10 +359,18 @@
     <t>Identifies this organization  across multiple systems</t>
   </si>
   <si>
-    <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.</t>
+    <t>Identifier for the organization that is used to identify the organization across multiple disparate systems. Typically, a NIHDI value and/or a CBE or EHP value are given. 
+Other systems are allowed. Flows in organizations will most likely want to also include a local identifier, using its own system. A type can be added if needed. When it is given, a consumer SHALL NOT ignore it.</t>
   </si>
   <si>
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
   <si>
     <t xml:space="preserve">org-1
@@ -381,6 +389,238 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
+    <t>NIHDI</t>
+  </si>
+  <si>
+    <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.</t>
+  </si>
+  <si>
+    <t>Organization.identifier.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Organization.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Organization.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Organization.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Organization.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/NamingSystem/nihdi</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>./IdentifierType</t>
+  </si>
+  <si>
+    <t>Organization.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>./Value</t>
+  </si>
+  <si>
+    <t>Organization.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>./StartDate and ./EndDate</t>
+  </si>
+  <si>
+    <t>Organization.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>./IdentifierIssuingAuthority</t>
+  </si>
+  <si>
+    <t>CBE</t>
+  </si>
+  <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/NamingSystem/cbe</t>
+  </si>
+  <si>
+    <t>SSIN</t>
+  </si>
+  <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/NamingSystem/ssin</t>
+  </si>
+  <si>
+    <t>EHP</t>
+  </si>
+  <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/NamingSystem/ehp</t>
+  </si>
+  <si>
     <t>Organization.active</t>
   </si>
   <si>
@@ -391,7 +631,7 @@
     <t>Whether the organization's record is still in active use</t>
   </si>
   <si>
-    <t>Whether the organization's record is still in active use.</t>
+    <t>Whether the organization's record is still in active use. It is RECOMMENDED to keep the value ‘true’ as long as the organization is known to be active.</t>
   </si>
   <si>
     <t>This active flag is not intended to be used to mark an organization as temporarily closed or under construction. Instead the Location(s) within the Organization should have the suspended status. If further details of the reason for the suspension are required, then an extension on this element should be used.
@@ -419,14 +659,12 @@
     <t>Organization.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Kind of organization</t>
   </si>
   <si>
-    <t>The kind(s) of organization that this is.</t>
+    <t>The kind(s) of organization that this is.
+Proposed use of CD-HCPARTY to type the organisation using dept... or org... codes. Other systems remain allowed. In typical use, RECOMMENDED to type the organization. 
+In the future, specific other systems might also be proposed from a federal level to better type an organization.</t>
   </si>
   <si>
     <t>Organizations can be corporations, wards, sections, clinical teams, government departments, etc. Note that code is generally a classifier of the type of organization; in many applications, codes are used to identity a particular organization (say, ward) as opposed to another of the same type - these are identifiers, not codes
@@ -446,16 +684,204 @@
     <t>http://hl7.org/fhir/ValueSet/organization-type</t>
   </si>
   <si>
+    <t xml:space="preserve">value:coding.system}
+</t>
+  </si>
+  <si>
+    <t>Slice based on the identifier.code pattern</t>
+  </si>
+  <si>
     <t>No equivalent in v2</t>
   </si>
   <si>
     <t>.code</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>CD-HCPARTY</t>
+  </si>
+  <si>
+    <t>The kind(s) of organization that this is.</t>
+  </si>
+  <si>
+    <t>Organization.type.id</t>
+  </si>
+  <si>
+    <t>Organization.type.extension</t>
+  </si>
+  <si>
+    <t>Organization.type.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Organization.type.coding.id</t>
+  </si>
+  <si>
+    <t>Organization.type.coding.extension</t>
+  </si>
+  <si>
+    <t>Organization.type.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/CodeSystem/cd-hcparty</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Organization.type.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Organization.type.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>Organization.type.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Organization.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Organization.type.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Organization.name</t>
@@ -508,7 +934,8 @@
     <t>A contact detail for the organization</t>
   </si>
   <si>
-    <t>A contact detail for the organization.</t>
+    <t>A contact detail for the organization.
+It is RECOMMENDED to at least add one phone or email address.</t>
   </si>
   <si>
     <t>The use code 'home' is not to be used. Note that these contacts are not the contact details of people who are employed by or represent the organization, but official contacts for the organization itself.</t>
@@ -537,183 +964,166 @@
     <t>Organization.address</t>
   </si>
   <si>
+    <t xml:space="preserve">Address {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-address}
+</t>
+  </si>
+  <si>
+    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats)</t>
+  </si>
+  <si>
+    <t>An address for the individual.
+It is RECOMMENDED to include an address when available. When needed to express the availablity of a Patient at home (e.g. only Wednesdays), another solution will be defined.</t>
+  </si>
+  <si>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+  </si>
+  <si>
+    <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+org-2:An address of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
+  </si>
+  <si>
+    <t>XAD</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Organization.partOf</t>
+  </si>
+  <si>
+    <t>The organization of which this organization forms a part</t>
+  </si>
+  <si>
+    <t>The organization of which this organization forms a part.</t>
+  </si>
+  <si>
+    <t>Need to be able to track the hierarchy of organizations within an organization.</t>
+  </si>
+  <si>
+    <t>.playedBy[classCode=Part].scoper</t>
+  </si>
+  <si>
+    <t>Organization.contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Contact for the organization for a certain purpose</t>
+  </si>
+  <si>
+    <t>Contact for the organization for a certain purpose.</t>
+  </si>
+  <si>
+    <t>Where multiple contacts for the same purpose are provided there is a standard extension that can be used to determine which one is the preferred contact to use.</t>
+  </si>
+  <si>
+    <t>Need to keep track of assigned contact points within bigger organization.</t>
+  </si>
+  <si>
+    <t>.contactParty</t>
+  </si>
+  <si>
+    <t>Organization.contact.id</t>
+  </si>
+  <si>
+    <t>Organization.contact.extension</t>
+  </si>
+  <si>
+    <t>Organization.contact.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Organization.contact.purpose</t>
+  </si>
+  <si>
+    <t>The type of contact</t>
+  </si>
+  <si>
+    <t>Indicates a purpose for which the contact can be reached.</t>
+  </si>
+  <si>
+    <t>Need to distinguish between multiple contact persons.</t>
+  </si>
+  <si>
+    <t>The purpose for which you would contact a contact party.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
+  </si>
+  <si>
+    <t>./type</t>
+  </si>
+  <si>
+    <t>Organization.contact.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HumanName
+</t>
+  </si>
+  <si>
+    <t>A name associated with the contact</t>
+  </si>
+  <si>
+    <t>A name associated with the contact.</t>
+  </si>
+  <si>
+    <t>Need to be able to track the person by name.</t>
+  </si>
+  <si>
+    <t>PID-5, PID-9</t>
+  </si>
+  <si>
+    <t>./name</t>
+  </si>
+  <si>
+    <t>Organization.contact.telecom</t>
+  </si>
+  <si>
+    <t>Contact details (telephone, email, etc.)  for a contact</t>
+  </si>
+  <si>
+    <t>A contact detail (e.g. a telephone number or an email address) by which the party may be contacted.</t>
+  </si>
+  <si>
+    <t>People have (primary) ways to contact them in some way such as phone, email.</t>
+  </si>
+  <si>
+    <t>PID-13, PID-14</t>
+  </si>
+  <si>
+    <t>./telecom</t>
+  </si>
+  <si>
+    <t>Organization.contact.address</t>
+  </si>
+  <si>
     <t xml:space="preserve">Address
 </t>
-  </si>
-  <si>
-    <t>An address for the organization</t>
-  </si>
-  <si>
-    <t>An address for the organization.</t>
-  </si>
-  <si>
-    <t>Organization may have multiple addresses with different uses or applicable periods. The use code 'home' is not to be used.</t>
-  </si>
-  <si>
-    <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org-2
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-org-2:An address of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
-  </si>
-  <si>
-    <t>ORC-23?</t>
-  </si>
-  <si>
-    <t>.address</t>
-  </si>
-  <si>
-    <t>./PrimaryAddress and ./OtherAddresses</t>
-  </si>
-  <si>
-    <t>Organization.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>The organization of which this organization forms a part</t>
-  </si>
-  <si>
-    <t>The organization of which this organization forms a part.</t>
-  </si>
-  <si>
-    <t>Need to be able to track the hierarchy of organizations within an organization.</t>
-  </si>
-  <si>
-    <t>.playedBy[classCode=Part].scoper</t>
-  </si>
-  <si>
-    <t>Organization.contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Contact for the organization for a certain purpose</t>
-  </si>
-  <si>
-    <t>Contact for the organization for a certain purpose.</t>
-  </si>
-  <si>
-    <t>Where multiple contacts for the same purpose are provided there is a standard extension that can be used to determine which one is the preferred contact to use.</t>
-  </si>
-  <si>
-    <t>Need to keep track of assigned contact points within bigger organization.</t>
-  </si>
-  <si>
-    <t>.contactParty</t>
-  </si>
-  <si>
-    <t>Organization.contact.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Organization.contact.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Organization.contact.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>Organization.contact.purpose</t>
-  </si>
-  <si>
-    <t>The type of contact</t>
-  </si>
-  <si>
-    <t>Indicates a purpose for which the contact can be reached.</t>
-  </si>
-  <si>
-    <t>Need to distinguish between multiple contact persons.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>The purpose for which you would contact a contact party.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
-  </si>
-  <si>
-    <t>./type</t>
-  </si>
-  <si>
-    <t>Organization.contact.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HumanName
-</t>
-  </si>
-  <si>
-    <t>A name associated with the contact</t>
-  </si>
-  <si>
-    <t>A name associated with the contact.</t>
-  </si>
-  <si>
-    <t>Need to be able to track the person by name.</t>
-  </si>
-  <si>
-    <t>PID-5, PID-9</t>
-  </si>
-  <si>
-    <t>./name</t>
-  </si>
-  <si>
-    <t>Organization.contact.telecom</t>
-  </si>
-  <si>
-    <t>Contact details (telephone, email, etc.)  for a contact</t>
-  </si>
-  <si>
-    <t>A contact detail (e.g. a telephone number or an email address) by which the party may be contacted.</t>
-  </si>
-  <si>
-    <t>People have (primary) ways to contact them in some way such as phone, email.</t>
-  </si>
-  <si>
-    <t>PID-13, PID-14</t>
-  </si>
-  <si>
-    <t>./telecom</t>
-  </si>
-  <si>
-    <t>Organization.contact.address</t>
   </si>
   <si>
     <t>Visiting or postal addresses for the contact</t>
@@ -893,7 +1303,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM27"/>
+  <dimension ref="A1:AM75"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -903,7 +1313,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="36.6171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.52734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -912,7 +1322,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="78.8515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="93.62890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -925,11 +1335,11 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="52.69140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.53515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="44.39453125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.921875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
@@ -937,8 +1347,8 @@
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.51171875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="48.6640625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="43.9296875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="99.6875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="211.14453125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
@@ -2131,16 +2541,14 @@
         <v>40</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="AB11" s="2"/>
       <c r="AC11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>106</v>
@@ -2152,29 +2560,31 @@
         <v>42</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="C12" t="s" s="2">
         <v>40</v>
       </c>
@@ -2183,38 +2593,34 @@
         <v>41</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="M12" t="s" s="2">
-        <v>120</v>
-      </c>
+      <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="P12" t="s" s="2">
-        <v>122</v>
-      </c>
+      <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
         <v>40</v>
       </c>
@@ -2258,36 +2664,36 @@
         <v>40</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2298,7 +2704,7 @@
         <v>41</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>40</v>
@@ -2307,23 +2713,19 @@
         <v>40</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>40</v>
       </c>
@@ -2347,13 +2749,13 @@
         <v>40</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>40</v>
@@ -2371,47 +2773,47 @@
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>139</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>40</v>
@@ -2420,23 +2822,21 @@
         <v>40</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>40</v>
       </c>
@@ -2472,40 +2872,40 @@
         <v>40</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="AC14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>40</v>
@@ -2513,7 +2913,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2524,31 +2924,31 @@
         <v>41</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>40</v>
@@ -2573,13 +2973,13 @@
         <v>40</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>40</v>
@@ -2597,13 +2997,13 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>40</v>
@@ -2612,10 +3012,10 @@
         <v>61</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>40</v>
@@ -2626,7 +3026,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2637,7 +3037,7 @@
         <v>41</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>40</v>
@@ -2646,22 +3046,22 @@
         <v>40</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>40</v>
@@ -2686,13 +3086,13 @@
         <v>40</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>40</v>
@@ -2710,28 +3110,28 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>40</v>
@@ -2739,7 +3139,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2747,10 +3147,10 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>40</v>
@@ -2759,22 +3159,22 @@
         <v>40</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>165</v>
+        <v>63</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>40</v>
@@ -2784,10 +3184,10 @@
         <v>40</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>40</v>
@@ -2823,28 +3223,28 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>171</v>
+        <v>61</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>40</v>
@@ -2852,7 +3252,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2860,7 +3260,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>49</v>
@@ -2875,18 +3275,18 @@
         <v>50</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>176</v>
+        <v>51</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>40</v>
       </c>
@@ -2898,7 +3298,7 @@
         <v>40</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>40</v>
@@ -2934,7 +3334,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -2949,13 +3349,13 @@
         <v>61</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>123</v>
+        <v>168</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>40</v>
@@ -2963,7 +3363,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2974,7 +3374,7 @@
         <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>40</v>
@@ -2983,23 +3383,19 @@
         <v>40</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>40</v>
       </c>
@@ -3047,13 +3443,13 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>40</v>
@@ -3062,13 +3458,13 @@
         <v>61</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>40</v>
+        <v>176</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>40</v>
@@ -3076,7 +3472,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3096,18 +3492,20 @@
         <v>40</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>51</v>
+        <v>180</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>40</v>
@@ -3156,7 +3554,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3168,28 +3566,30 @@
         <v>40</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>40</v>
+        <v>187</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="C21" t="s" s="2">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3199,27 +3599,27 @@
         <v>42</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>40</v>
       </c>
@@ -3267,7 +3667,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>194</v>
+        <v>106</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3276,63 +3676,59 @@
         <v>42</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>195</v>
+        <v>120</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>197</v>
+        <v>121</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>40</v>
       </c>
@@ -3380,25 +3776,25 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>199</v>
+        <v>123</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
@@ -3409,18 +3805,18 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>40</v>
@@ -3432,18 +3828,18 @@
         <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>201</v>
+        <v>96</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>40</v>
       </c>
@@ -3467,49 +3863,49 @@
         <v>40</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>204</v>
+        <v>40</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>205</v>
+        <v>40</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>200</v>
+        <v>129</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>207</v>
+        <v>124</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
@@ -3520,7 +3916,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>208</v>
+        <v>130</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3537,23 +3933,25 @@
         <v>40</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>210</v>
+        <v>131</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="N24" t="s" s="2">
-        <v>212</v>
+        <v>134</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -3578,13 +3976,13 @@
         <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>40</v>
@@ -3602,7 +4000,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3617,10 +4015,10 @@
         <v>61</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>213</v>
+        <v>92</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>214</v>
+        <v>139</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
@@ -3631,7 +4029,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3642,7 +4040,7 @@
         <v>41</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>40</v>
@@ -3651,20 +4049,22 @@
         <v>40</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>216</v>
+        <v>142</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="N25" t="s" s="2">
-        <v>218</v>
+        <v>145</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -3689,13 +4089,13 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
@@ -3713,13 +4113,13 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>215</v>
+        <v>149</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>40</v>
@@ -3728,10 +4128,10 @@
         <v>61</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>219</v>
+        <v>150</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>220</v>
+        <v>139</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
@@ -3742,7 +4142,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>221</v>
+        <v>151</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3750,7 +4150,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>49</v>
@@ -3762,20 +4162,22 @@
         <v>40</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>165</v>
+        <v>63</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>222</v>
+        <v>152</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="N26" t="s" s="2">
-        <v>224</v>
+        <v>155</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>40</v>
@@ -3785,10 +4187,10 @@
         <v>40</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>40</v>
@@ -3824,7 +4226,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>221</v>
+        <v>158</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -3839,13 +4241,13 @@
         <v>61</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>225</v>
+        <v>159</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>226</v>
+        <v>160</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>40</v>
@@ -3853,7 +4255,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>227</v>
+        <v>162</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3861,10 +4263,10 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>40</v>
@@ -3873,21 +4275,21 @@
         <v>40</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>228</v>
+        <v>51</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>229</v>
+        <v>163</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>40</v>
       </c>
@@ -3899,7 +4301,7 @@
         <v>40</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>40</v>
@@ -3935,13 +4337,13 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>227</v>
+        <v>167</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>40</v>
@@ -3950,20 +4352,5378 @@
         <v>61</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" hidden="true">
+      <c r="A28" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" hidden="true">
+      <c r="A29" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" hidden="true">
+      <c r="A31" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" hidden="true">
+      <c r="A32" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE33" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="AL27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AF33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" hidden="true">
+      <c r="A35" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P48" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="Q48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM75" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM27">
+  <autoFilter ref="A1:AM75">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -3973,7 +9733,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI26">
+  <conditionalFormatting sqref="A2:AI74">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-organization.xlsx
+++ b/StructureDefinition-be-organization.xlsx
@@ -3181,10 +3181,10 @@
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>157</v>
@@ -4184,10 +4184,10 @@
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>189</v>
+        <v>40</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>157</v>
@@ -5187,10 +5187,10 @@
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>157</v>
@@ -6190,10 +6190,10 @@
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>193</v>
+        <v>40</v>
       </c>
       <c r="S44" t="s" s="2">
         <v>157</v>
@@ -7530,10 +7530,10 @@
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>40</v>
+        <v>238</v>
       </c>
       <c r="R56" t="s" s="2">
-        <v>238</v>
+        <v>40</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>40</v>
